--- a/biology/Microbiologie/Clostridiaceae/Clostridiaceae.xlsx
+++ b/biology/Microbiologie/Clostridiaceae/Clostridiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clostridiaceae sont une famille de bactéries de la classe des Clostridia, parmi lesquels on trouve le genre type Clostridium. Cette famille a été créée par Ernst August Pribram (1879-1940) en 1933.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la List of Prokaryotic names with Standing in Nomenclature (LPSN)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la List of Prokaryotic names with Standing in Nomenclature (LPSN) :
 Abyssisolibacter Kim et al. 2016
 Acidaminobacter Stams and Hansen 1985
 Acuformis Prevot 1940
@@ -583,7 +597,7 @@
 Tyzzerella Yutin and Galperin 2013
 Welchia Pribram 1929
 Youngiibacter Lawson et al. 2014
-Selon GBIF       (8 juillet 2021)[2] :
+Selon GBIF       (8 juillet 2021) :
 Anoxynatronum Garnova et al., 2003
 Brassicibacter Fang et al., 2012
 Cellulosibacter Watthanalamloet et al., 2012
